--- a/jianhuyi-manager/src/main/resources/static/upload/template/用户导入模板.xlsx
+++ b/jianhuyi-manager/src/main/resources/static/upload/template/用户导入模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420"/>
+    <workbookView windowWidth="17471" windowHeight="9120"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -63,13 +63,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>*</t>
     </r>
     <r>
@@ -80,7 +73,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>身份证号</t>
+      <t>身份证号(必须真实有效)</t>
     </r>
   </si>
   <si>
@@ -122,10 +115,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -144,6 +137,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -158,8 +158,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -180,39 +202,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -220,39 +212,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -264,24 +226,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -302,13 +295,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -320,31 +403,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -356,133 +475,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -520,6 +513,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -531,6 +533,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -564,35 +586,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -601,10 +594,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -613,133 +606,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1110,16 +1103,18 @@
   <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="12.3796296296296" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.2222222222222" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.8888888888889" style="1" customWidth="1"/>
     <col min="3" max="3" width="24.1111111111111" style="1" customWidth="1"/>
     <col min="4" max="4" width="15.8888888888889" style="1" customWidth="1"/>
-    <col min="5" max="14" width="9" style="1"/>
+    <col min="5" max="5" width="21.8888888888889" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.4444444444444" style="1" customWidth="1"/>
+    <col min="7" max="14" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1" spans="1:14">

--- a/jianhuyi-manager/src/main/resources/static/upload/template/用户导入模板.xlsx
+++ b/jianhuyi-manager/src/main/resources/static/upload/template/用户导入模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17471" windowHeight="9120"/>
+    <workbookView windowWidth="22368" windowHeight="9564"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,32 +12,16 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <oleSize ref="A1:D1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>手机号</t>
-    </r>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+  <si>
+    <t>序号</t>
+  </si>
+  <si>
+    <t>手机号</t>
   </si>
   <si>
     <r>
@@ -63,6 +47,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>*</t>
     </r>
     <r>
@@ -73,17 +64,96 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>身份证号(必须真实有效)</t>
+      <t>身份证号</t>
     </r>
   </si>
   <si>
-    <t>性别</t>
-  </si>
-  <si>
-    <t>学校</t>
-  </si>
-  <si>
-    <t>班级</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>性别</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>学校</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>年级</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>学号</t>
+    </r>
   </si>
   <si>
     <t>左眼视力</t>
@@ -108,6 +178,9 @@
   </si>
   <si>
     <t>右眼轴</t>
+  </si>
+  <si>
+    <t>设备号</t>
   </si>
 </sst>
 </file>
@@ -115,12 +188,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,6 +216,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -150,9 +224,91 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -166,22 +322,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -196,93 +347,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -295,13 +362,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -313,169 +536,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -486,6 +553,26 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -504,20 +591,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -539,11 +623,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -552,22 +634,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -594,10 +661,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -606,150 +673,147 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1100,69 +1164,78 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:Q1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="16.2222222222222" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.8888888888889" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.1111111111111" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.8888888888889" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.8888888888889" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.4444444444444" style="1" customWidth="1"/>
-    <col min="7" max="14" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="3" width="9" style="2"/>
+    <col min="4" max="4" width="17.1111111111111" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.1111111111111" style="2" customWidth="1"/>
+    <col min="6" max="6" width="21.4444444444444" style="2" customWidth="1"/>
+    <col min="7" max="16" width="9" style="2"/>
+    <col min="17" max="17" width="17.4444444444444" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="30" customHeight="1" spans="1:14">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:17">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
@@ -1179,7 +1252,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
@@ -1196,7 +1269,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>

--- a/jianhuyi-manager/src/main/resources/static/upload/template/用户导入模板.xlsx
+++ b/jianhuyi-manager/src/main/resources/static/upload/template/用户导入模板.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>序号</t>
   </si>
@@ -182,6 +182,9 @@
   <si>
     <t>设备号</t>
   </si>
+  <si>
+    <t>管理员id</t>
+  </si>
 </sst>
 </file>
 
@@ -189,8 +192,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -218,34 +221,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -254,32 +229,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -291,24 +243,61 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -322,6 +311,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -330,9 +326,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -345,13 +355,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -362,13 +365,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -380,37 +497,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -422,127 +515,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -553,6 +556,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -567,11 +594,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -591,17 +624,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -620,39 +656,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -661,10 +664,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -673,142 +676,139 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1164,74 +1164,76 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q1"/>
+  <dimension ref="A1:R1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="3" width="9" style="2"/>
-    <col min="4" max="4" width="17.1111111111111" style="2" customWidth="1"/>
-    <col min="5" max="5" width="12.1111111111111" style="2" customWidth="1"/>
-    <col min="6" max="6" width="21.4444444444444" style="2" customWidth="1"/>
-    <col min="7" max="16" width="9" style="2"/>
-    <col min="17" max="17" width="17.4444444444444" style="2" customWidth="1"/>
+    <col min="1" max="3" width="9" style="1"/>
+    <col min="4" max="4" width="17.1111111111111" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1111111111111" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.4444444444444" style="1" customWidth="1"/>
+    <col min="7" max="16" width="9" style="1"/>
+    <col min="17" max="17" width="17.4444444444444" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/jianhuyi-manager/src/main/resources/static/upload/template/用户导入模板.xlsx
+++ b/jianhuyi-manager/src/main/resources/static/upload/template/用户导入模板.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>序号</t>
   </si>
@@ -185,15 +185,18 @@
   <si>
     <t>管理员id</t>
   </si>
+  <si>
+    <t>是否戴镜</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -213,6 +216,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -221,7 +231,66 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -252,12 +321,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -265,59 +343,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -331,28 +356,6 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -365,187 +368,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -556,6 +559,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -574,37 +601,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -628,7 +635,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -642,17 +649,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -664,10 +667,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -676,133 +679,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1164,10 +1167,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R1"/>
+  <dimension ref="A1:S1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1180,7 +1183,7 @@
     <col min="17" max="17" width="17.4444444444444" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1234,6 +1237,9 @@
       </c>
       <c r="R1" t="s">
         <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
